--- a/readme/Qlearning.xlsx
+++ b/readme/Qlearning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limsm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limsm\git\lms\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>1. Eclipse 실행</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>접속 : qlearn / -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Putty로 접속후에 ./log.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.restart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,6 +880,44 @@
         <a:xfrm>
           <a:off x="723900" y="16392525"/>
           <a:ext cx="9390476" cy="8152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>410933</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="24726900"/>
+          <a:ext cx="7268933" cy="5467350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1144,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1205,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1275,6 +1325,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
